--- a/biology/Zoologie/Heterocongrinae/Heterocongrinae.xlsx
+++ b/biology/Zoologie/Heterocongrinae/Heterocongrinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Heterocongrinae (ou Heterocongridae) comporte deux genres comprenant plusieurs espèces de poissons appelés hétérocongres, anguilles jardinières, anguilles de jardin ou anguilles tubicoles.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces poissons longs et minces (une quarantaine de centimètres maximum et une quinzaine de millimètres de diamètre environ) ont la particularité de vivre à demi enfouis dans un tunnel vertical, creusé dans une pente sableuse, enduit de mucus sécrété par l'épiderme de l'animal. La pointe de leur queue est modifiée de sorte qu'ils sont solidement ancrés au substrat ; ils ne sortent jamais complètement de leur trou, même pour se reproduire. Leurs yeux leur offrent une vision binoculaire, leur ligne latérale est modifiée[évasif], et ils possèdent des organes sécréteurs de mucus sur leur épiderme. Au moindre mouvement, ils se cachent dans leur terrier. La tête en avant, ils capturent le zooplancton apporté par le courant grâce à leur bouche retroussée. Ils vivent en colonies (appelées jardins) atteignant souvent plusieurs centaines d'individus, qui se placent généralement à égale distance les uns des autres. Il arrive que de tels « jardins » comprennent plusieurs espèces d'hétérocongres différentes.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces poissons habitent dans les eaux chaudes de l'océan Indien, de l'océan Pacifique, de l'océan Atlantique et de la mer Rouge. On a trouvé des colonies de 1 mètre jusqu'à plus de 300 mètres de profondeur – elles sont cependant rares au-delà de 200 mètres, la lumière étant trop faible pour permettre aux hétérocongres de voir leurs proies[réf. nécessaire]. La taille des colonies augmente avec la profondeur.
 Les colonies d'hétérocongres sont toujours implantées sur des pentes sablonneuses exposées au courant, de sorte qu'ils peuvent constamment capturer leurs proies, mais toujours à l'abri des vagues.
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hétérocongres se reproduisent de manière sexuée. Ils ne quittent pas leur terrier pour la reproduction. Lorsqu'ils fraient, les mâles et les femelles les plus proches entrelacent leurs corps, puis libèrent du sperme et des ovules dans l'eau. Les œufs, une fois fécondés, deviennent des larves leptocéphales, qui, dès qu'elles sont juvéniles, rejoignent la colonie et créent leur terrier à la périphérie, de sorte que le jardin s'agrandit sans cesse.
 </t>
@@ -605,7 +623,9 @@
           <t>En plongée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est difficile pour un plongeur de photographier des hétérocongres, car ces derniers perçoivent les vibrations causées par les bulles d'air relâchées par les plongeurs et rentrent aussitôt dans leur terrier.
 </t>
@@ -636,7 +656,9 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sous-famille comprend deux genres (35 espèces) :
 </t>
